--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf1-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf1-Fgfr1.xlsx
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fgf1</t>
+  </si>
+  <si>
+    <t>Fgfr1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf1</t>
-  </si>
-  <si>
-    <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H2">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I2">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J2">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N2">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O2">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P2">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q2">
-        <v>3.460381850344</v>
+        <v>7.209624434779555</v>
       </c>
       <c r="R2">
-        <v>31.143436653096</v>
+        <v>64.88661991301601</v>
       </c>
       <c r="S2">
-        <v>0.006929810044725305</v>
+        <v>0.02848497176003076</v>
       </c>
       <c r="T2">
-        <v>0.006929810044725305</v>
+        <v>0.02848497176003075</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H3">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I3">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J3">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>188.990975</v>
       </c>
       <c r="O3">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P3">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q3">
-        <v>37.22983614118333</v>
+        <v>43.30650495835278</v>
       </c>
       <c r="R3">
-        <v>335.06852527065</v>
+        <v>389.758544625175</v>
       </c>
       <c r="S3">
-        <v>0.07455700082030017</v>
+        <v>0.1711024730793803</v>
       </c>
       <c r="T3">
-        <v>0.07455700082030017</v>
+        <v>0.1711024730793802</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H4">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I4">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J4">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N4">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O4">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P4">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q4">
-        <v>0.1560455739806667</v>
+        <v>0.2284213295882222</v>
       </c>
       <c r="R4">
-        <v>1.404410165826</v>
+        <v>2.055791966294</v>
       </c>
       <c r="S4">
-        <v>0.0003124990919423097</v>
+        <v>0.0009024846136674159</v>
       </c>
       <c r="T4">
-        <v>0.0003124990919423097</v>
+        <v>0.0009024846136674158</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H5">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I5">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J5">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N5">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O5">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P5">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q5">
-        <v>25.922665492758</v>
+        <v>7.049387526743223</v>
       </c>
       <c r="R5">
-        <v>233.303989434822</v>
+        <v>63.44448774068901</v>
       </c>
       <c r="S5">
-        <v>0.05191309961931233</v>
+        <v>0.02785188139012037</v>
       </c>
       <c r="T5">
-        <v>0.05191309961931233</v>
+        <v>0.02785188139012037</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H6">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I6">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J6">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N6">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O6">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P6">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q6">
-        <v>0.450994814074</v>
+        <v>0.5205390293485557</v>
       </c>
       <c r="R6">
-        <v>4.058953326666</v>
+        <v>4.684851264137</v>
       </c>
       <c r="S6">
-        <v>0.0009031686466562458</v>
+        <v>0.002056631338445136</v>
       </c>
       <c r="T6">
-        <v>0.0009031686466562458</v>
+        <v>0.002056631338445135</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H7">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I7">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J7">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N7">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O7">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P7">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q7">
-        <v>0.7246398882453334</v>
+        <v>0.6798550000574445</v>
       </c>
       <c r="R7">
-        <v>6.521758994208</v>
+        <v>6.118695000517</v>
       </c>
       <c r="S7">
-        <v>0.001451174174859324</v>
+        <v>0.002686083117468816</v>
       </c>
       <c r="T7">
-        <v>0.001451174174859323</v>
+        <v>0.002686083117468815</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.404332</v>
       </c>
       <c r="I8">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J8">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N8">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O8">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P8">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q8">
-        <v>2.740950855845334</v>
+        <v>4.909393628291555</v>
       </c>
       <c r="R8">
-        <v>24.66855770260801</v>
+        <v>44.184542654624</v>
       </c>
       <c r="S8">
-        <v>0.005489067274771186</v>
+        <v>0.01939684100410923</v>
       </c>
       <c r="T8">
-        <v>0.005489067274771186</v>
+        <v>0.01939684100410922</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.404332</v>
       </c>
       <c r="I9">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J9">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>188.990975</v>
       </c>
       <c r="O9">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P9">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q9">
         <v>29.48956376707778</v>
@@ -1013,10 +1013,10 @@
         <v>265.4060739037</v>
       </c>
       <c r="S9">
-        <v>0.05905622097380602</v>
+        <v>0.1165122259446128</v>
       </c>
       <c r="T9">
-        <v>0.05905622097380602</v>
+        <v>0.1165122259446128</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>1.404332</v>
       </c>
       <c r="I10">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J10">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N10">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O10">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P10">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q10">
-        <v>0.1236029051275556</v>
+        <v>0.1555435002462222</v>
       </c>
       <c r="R10">
-        <v>1.112426146148</v>
+        <v>1.399891502216</v>
       </c>
       <c r="S10">
-        <v>0.0002475289406066598</v>
+        <v>0.000614546881332169</v>
       </c>
       <c r="T10">
-        <v>0.0002475289406066598</v>
+        <v>0.0006145468813321689</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>1.404332</v>
       </c>
       <c r="I11">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J11">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N11">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O11">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P11">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q11">
-        <v>20.533211431884</v>
+        <v>4.800280308666223</v>
       </c>
       <c r="R11">
-        <v>184.798902886956</v>
+        <v>43.20252277799601</v>
       </c>
       <c r="S11">
-        <v>0.04112010205376407</v>
+        <v>0.01896573812818448</v>
       </c>
       <c r="T11">
-        <v>0.04112010205376407</v>
+        <v>0.01896573812818448</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>1.404332</v>
       </c>
       <c r="I12">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J12">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N12">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O12">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P12">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q12">
-        <v>0.3572306973853334</v>
+        <v>0.3544610426075556</v>
       </c>
       <c r="R12">
-        <v>3.215076276468</v>
+        <v>3.190149383468</v>
       </c>
       <c r="S12">
-        <v>0.0007153952893317288</v>
+        <v>0.001400463072667114</v>
       </c>
       <c r="T12">
-        <v>0.0007153952893317288</v>
+        <v>0.001400463072667114</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.404332</v>
       </c>
       <c r="I13">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J13">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N13">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O13">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P13">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q13">
-        <v>0.5739835682204446</v>
+        <v>0.4629472499764445</v>
       </c>
       <c r="R13">
-        <v>5.165852113984</v>
+        <v>4.166525249788</v>
       </c>
       <c r="S13">
-        <v>0.001149467679749243</v>
+        <v>0.001829088250193456</v>
       </c>
       <c r="T13">
-        <v>0.001149467679749243</v>
+        <v>0.001829088250193456</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.02272533333333333</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H14">
-        <v>0.068176</v>
+        <v>5.274976</v>
       </c>
       <c r="I14">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J14">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N14">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O14">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P14">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q14">
-        <v>0.1330647350826667</v>
+        <v>18.44074874302578</v>
       </c>
       <c r="R14">
-        <v>1.197582615744</v>
+        <v>165.966738687232</v>
       </c>
       <c r="S14">
-        <v>0.0002664773362173619</v>
+        <v>0.07285874762698001</v>
       </c>
       <c r="T14">
-        <v>0.0002664773362173619</v>
+        <v>0.07285874762697998</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.02272533333333333</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H15">
-        <v>0.068176</v>
+        <v>5.274976</v>
       </c>
       <c r="I15">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J15">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>188.990975</v>
       </c>
       <c r="O15">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P15">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q15">
-        <v>1.431627634622222</v>
+        <v>110.7692063712889</v>
       </c>
       <c r="R15">
-        <v>12.8846487116</v>
+        <v>996.9228573415999</v>
       </c>
       <c r="S15">
-        <v>0.002866997918661825</v>
+        <v>0.4376452260323127</v>
       </c>
       <c r="T15">
-        <v>0.002866997918661825</v>
+        <v>0.4376452260323125</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.02272533333333333</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H16">
-        <v>0.068176</v>
+        <v>5.274976</v>
       </c>
       <c r="I16">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J16">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N16">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O16">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P16">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q16">
-        <v>0.006000540940444444</v>
+        <v>0.5842551695431111</v>
       </c>
       <c r="R16">
-        <v>0.054004868464</v>
+        <v>5.258296525887999</v>
       </c>
       <c r="S16">
-        <v>1.201676886576652E-05</v>
+        <v>0.002308371560216558</v>
       </c>
       <c r="T16">
-        <v>1.201676886576652E-05</v>
+        <v>0.002308371560216558</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.02272533333333333</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H17">
-        <v>0.068176</v>
+        <v>5.274976</v>
       </c>
       <c r="I17">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J17">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N17">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O17">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P17">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q17">
-        <v>0.9968242713119999</v>
+        <v>18.03089541610311</v>
       </c>
       <c r="R17">
-        <v>8.971418441808</v>
+        <v>162.278058744928</v>
       </c>
       <c r="S17">
-        <v>0.001996254502224131</v>
+        <v>0.07123943159342525</v>
       </c>
       <c r="T17">
-        <v>0.001996254502224131</v>
+        <v>0.07123943159342522</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.02272533333333333</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H18">
-        <v>0.068176</v>
+        <v>5.274976</v>
       </c>
       <c r="I18">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J18">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N18">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O18">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P18">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q18">
-        <v>0.01734245180266666</v>
+        <v>1.331432661713778</v>
       </c>
       <c r="R18">
-        <v>0.156082066224</v>
+        <v>11.982893955424</v>
       </c>
       <c r="S18">
-        <v>3.473024131436151E-05</v>
+        <v>0.005260443468642232</v>
       </c>
       <c r="T18">
-        <v>3.473024131436151E-05</v>
+        <v>0.00526044346864223</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.02272533333333333</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H19">
-        <v>0.068176</v>
+        <v>5.274976</v>
       </c>
       <c r="I19">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J19">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N19">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O19">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P19">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q19">
-        <v>0.02786513712355556</v>
+        <v>1.738930418798222</v>
       </c>
       <c r="R19">
-        <v>0.250786234112</v>
+        <v>15.650373769184</v>
       </c>
       <c r="S19">
-        <v>5.580312101026279E-05</v>
+        <v>0.006870452728879265</v>
       </c>
       <c r="T19">
-        <v>5.580312101026278E-05</v>
+        <v>0.006870452728879262</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>3.157754</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H20">
-        <v>9.473262</v>
+        <v>0.046231</v>
       </c>
       <c r="I20">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J20">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N20">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O20">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P20">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q20">
-        <v>18.489748568392</v>
+        <v>0.1616186035991111</v>
       </c>
       <c r="R20">
-        <v>166.407737115528</v>
+        <v>1.454567432392</v>
       </c>
       <c r="S20">
-        <v>0.03702783417990435</v>
+        <v>0.0006385494003276816</v>
       </c>
       <c r="T20">
-        <v>0.03702783417990435</v>
+        <v>0.0006385494003276815</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>3.157754</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H21">
-        <v>9.473262</v>
+        <v>0.046231</v>
       </c>
       <c r="I21">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J21">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>188.990975</v>
       </c>
       <c r="O21">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P21">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q21">
-        <v>198.9290024233833</v>
+        <v>0.9708046405805555</v>
       </c>
       <c r="R21">
-        <v>1790.36102181045</v>
+        <v>8.737241765225001</v>
       </c>
       <c r="S21">
-        <v>0.3983780573359857</v>
+        <v>0.003835614881413649</v>
       </c>
       <c r="T21">
-        <v>0.3983780573359857</v>
+        <v>0.003835614881413649</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,25 +1774,25 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>3.157754</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H22">
-        <v>9.473262</v>
+        <v>0.046231</v>
       </c>
       <c r="I22">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J22">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N22">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O22">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P22">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q22">
-        <v>0.8337933652686667</v>
+        <v>0.005120535286444444</v>
       </c>
       <c r="R22">
-        <v>7.504140287417999</v>
+        <v>0.046084817578</v>
       </c>
       <c r="S22">
-        <v>0.001669766484669812</v>
+        <v>2.023105424562532E-05</v>
       </c>
       <c r="T22">
-        <v>0.001669766484669812</v>
+        <v>2.023105424562532E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>3.157754</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H23">
-        <v>9.473262</v>
+        <v>0.046231</v>
       </c>
       <c r="I23">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J23">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N23">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O23">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P23">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q23">
-        <v>138.511756191294</v>
+        <v>0.1580265627714444</v>
       </c>
       <c r="R23">
-        <v>1246.605805721646</v>
+        <v>1.422239064943</v>
       </c>
       <c r="S23">
-        <v>0.27738561837375</v>
+        <v>0.0006243573737578412</v>
       </c>
       <c r="T23">
-        <v>0.27738561837375</v>
+        <v>0.0006243573737578411</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>3.157754</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H24">
-        <v>9.473262</v>
+        <v>0.046231</v>
       </c>
       <c r="I24">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J24">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N24">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O24">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P24">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q24">
-        <v>2.409786283282</v>
+        <v>0.01166895610211111</v>
       </c>
       <c r="R24">
-        <v>21.688076549538</v>
+        <v>0.105020604919</v>
       </c>
       <c r="S24">
-        <v>0.004825872378757495</v>
+        <v>4.610363383621063E-05</v>
       </c>
       <c r="T24">
-        <v>0.004825872378757495</v>
+        <v>4.610363383621062E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>3.157754</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H25">
-        <v>9.473262</v>
+        <v>0.046231</v>
       </c>
       <c r="I25">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J25">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N25">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O25">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P25">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q25">
-        <v>3.871945327349334</v>
+        <v>0.01524035221988889</v>
       </c>
       <c r="R25">
-        <v>34.847507946144</v>
+        <v>0.137163169979</v>
       </c>
       <c r="S25">
-        <v>0.007754012933406538</v>
+        <v>6.021409388570057E-05</v>
       </c>
       <c r="T25">
-        <v>0.007754012933406536</v>
+        <v>6.021409388570057E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.1037266666666667</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H26">
-        <v>0.31118</v>
+        <v>0.060067</v>
       </c>
       <c r="I26">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J26">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N26">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O26">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P26">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q26">
-        <v>0.6073557302133334</v>
+        <v>0.2099877714604444</v>
       </c>
       <c r="R26">
-        <v>5.466201571920001</v>
+        <v>1.889889943144</v>
       </c>
       <c r="S26">
-        <v>0.001216299247302844</v>
+        <v>0.0008296542759075696</v>
       </c>
       <c r="T26">
-        <v>0.001216299247302844</v>
+        <v>0.0008296542759075695</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.1037266666666667</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H27">
-        <v>0.31118</v>
+        <v>0.060067</v>
       </c>
       <c r="I27">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J27">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>188.990975</v>
       </c>
       <c r="O27">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P27">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q27">
-        <v>6.534467955611111</v>
+        <v>1.261346766147222</v>
       </c>
       <c r="R27">
-        <v>58.8102116005</v>
+        <v>11.352120895325</v>
       </c>
       <c r="S27">
-        <v>0.01308601872109227</v>
+        <v>0.004983536568144182</v>
       </c>
       <c r="T27">
-        <v>0.01308601872109227</v>
+        <v>0.004983536568144181</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,7 +2146,7 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2155,16 +2155,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.1037266666666667</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H28">
-        <v>0.31118</v>
+        <v>0.060067</v>
       </c>
       <c r="I28">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J28">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N28">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O28">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P28">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q28">
-        <v>0.02738864600222223</v>
+        <v>0.006653007571777777</v>
       </c>
       <c r="R28">
-        <v>0.24649781402</v>
+        <v>0.059877068146</v>
       </c>
       <c r="S28">
-        <v>5.484889309506612E-05</v>
+        <v>2.628579817377899E-05</v>
       </c>
       <c r="T28">
-        <v>5.484889309506612E-05</v>
+        <v>2.628579817377899E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.1037266666666667</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H29">
-        <v>0.31118</v>
+        <v>0.060067</v>
       </c>
       <c r="I29">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J29">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N29">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O29">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P29">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q29">
-        <v>4.54986764766</v>
+        <v>0.2053207057167778</v>
       </c>
       <c r="R29">
-        <v>40.94880882894</v>
+        <v>1.847886351451</v>
       </c>
       <c r="S29">
-        <v>0.009111629840443928</v>
+        <v>0.0008112148638254039</v>
       </c>
       <c r="T29">
-        <v>0.009111629840443928</v>
+        <v>0.0008112148638254038</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.1037266666666667</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H30">
-        <v>0.31118</v>
+        <v>0.060067</v>
       </c>
       <c r="I30">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J30">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N30">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O30">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P30">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q30">
-        <v>0.07915724231333333</v>
+        <v>0.01516123783144445</v>
       </c>
       <c r="R30">
-        <v>0.71241518082</v>
+        <v>0.136451140483</v>
       </c>
       <c r="S30">
-        <v>0.000158521422380354</v>
+        <v>5.990151572840007E-05</v>
       </c>
       <c r="T30">
-        <v>0.000158521422380354</v>
+        <v>5.990151572840006E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.1037266666666667</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H31">
-        <v>0.31118</v>
+        <v>0.060067</v>
       </c>
       <c r="I31">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J31">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N31">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O31">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P31">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q31">
-        <v>0.1271865960177778</v>
+        <v>0.01980148032255555</v>
       </c>
       <c r="R31">
-        <v>1.14467936416</v>
+        <v>0.178213322903</v>
       </c>
       <c r="S31">
-        <v>0.0002547056910932524</v>
+        <v>7.823495008614082E-05</v>
       </c>
       <c r="T31">
-        <v>0.0002547056910932524</v>
+        <v>7.823495008614081E-05</v>
       </c>
     </row>
   </sheetData>
